--- a/resources/Empty.xlsx
+++ b/resources/Empty.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BF5046-7D56-4783-97DB-DFED312747C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3756" yWindow="1752" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +53,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +107,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -131,9 +140,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,6 +192,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,12 +384,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
